--- a/data/trans_dic/P13A_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_R-Habitat-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.01257648801961455</v>
+        <v>0.01257648801961454</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.03446803194797676</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005994390032439896</v>
+        <v>0.00634989234510074</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02421991774973692</v>
+        <v>0.02453600333052818</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01746750242691242</v>
+        <v>0.01711042631727483</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02347860172803334</v>
+        <v>0.02359290164935367</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0516141253214456</v>
+        <v>0.05160973289395221</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03314947939314378</v>
+        <v>0.03276445316457721</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.01428131346160519</v>
+        <v>0.0142813134616052</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.04588262614645157</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007504453903630673</v>
+        <v>0.007706458669202463</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0355684299076137</v>
+        <v>0.03481458380946395</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02371559570433488</v>
+        <v>0.02445005257852149</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02421742569085822</v>
+        <v>0.02404265815067941</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05923686645542355</v>
+        <v>0.06117859434022285</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03837816262903111</v>
+        <v>0.03885664576512823</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0065230425402643</v>
+        <v>0.006756979627395913</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03348513414734309</v>
+        <v>0.03392403386763002</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02191653015522595</v>
+        <v>0.02205090914921515</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02343224406230266</v>
+        <v>0.02346408977806591</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05755556972785811</v>
+        <v>0.05680776328818236</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03749716421444791</v>
+        <v>0.03683739974984175</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.006035139025618542</v>
+        <v>0.006035139025618544</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.040442294334801</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.02424720288050091</v>
+        <v>0.0242472028805009</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002591404986606701</v>
+        <v>0.002663199373309944</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03086171535341911</v>
+        <v>0.03068682775455915</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01862512307830229</v>
+        <v>0.01874707327952002</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01160222485329079</v>
+        <v>0.0114215846942794</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05234252105422086</v>
+        <v>0.05186338863942317</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03048273271081572</v>
+        <v>0.03096621185414174</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.01134071447310502</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.04172072495503839</v>
+        <v>0.04172072495503838</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.0269465743780494</v>
+        <v>0.02694657437804941</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.00825596437309384</v>
+        <v>0.008299648256392896</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03611444804591855</v>
+        <v>0.03646491850232821</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02378849893491861</v>
+        <v>0.02355325836603392</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01537438538715443</v>
+        <v>0.01554821243917731</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04874032050514027</v>
+        <v>0.0477714198252031</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0309719647443804</v>
+        <v>0.03078181500823735</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4121</v>
+        <v>4365</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17717</v>
+        <v>17949</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>24786</v>
+        <v>24279</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16140</v>
+        <v>16219</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>37757</v>
+        <v>37753</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>47038</v>
+        <v>46492</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7842</v>
+        <v>8053</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>38047</v>
+        <v>37241</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>50149</v>
+        <v>51702</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25305</v>
+        <v>25123</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>63365</v>
+        <v>65442</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>81155</v>
+        <v>82167</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5226</v>
+        <v>5413</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>27046</v>
+        <v>27400</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>35261</v>
+        <v>35477</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18773</v>
+        <v>18799</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>46487</v>
+        <v>45883</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>60328</v>
+        <v>59266</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2554</v>
+        <v>2625</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>34202</v>
+        <v>34008</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>38995</v>
+        <v>39251</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11434</v>
+        <v>11256</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>58007</v>
+        <v>57476</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>63822</v>
+        <v>64834</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>29053</v>
+        <v>29207</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>134242</v>
+        <v>135544</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>172137</v>
+        <v>170435</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>54103</v>
+        <v>54714</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>181174</v>
+        <v>177572</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>224117</v>
+        <v>222741</v>
       </c>
     </row>
     <row r="24">
